--- a/Listagem.xlsx
+++ b/Listagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\Teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thund\Documents\Dev-Local-Home\Rocko-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A70AB-5BAC-4EAF-812E-7ED7365E1E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E085C2-CCCB-4A7B-BAB7-840070405C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC9A8C51-D2D1-442B-9E75-1A65D29D05B7}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{DC9A8C51-D2D1-442B-9E75-1A65D29D05B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Exames Normais" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
